--- a/Plan/Tasks.xlsx
+++ b/Plan/Tasks.xlsx
@@ -13,6 +13,47 @@
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Bootstrapping</t>
+  </si>
+  <si>
+    <t>CI using Jenkins/Bluemix</t>
+  </si>
+  <si>
+    <t>Vaibhav</t>
+  </si>
+  <si>
+    <t>Arjun</t>
+  </si>
+  <si>
+    <t>GITHUB setup</t>
+  </si>
+  <si>
+    <t>Vijay</t>
+  </si>
+  <si>
+    <t>Prioirity</t>
+  </si>
+  <si>
+    <t>Person Registration</t>
+  </si>
+  <si>
+    <t>Sajesh/Vijay</t>
+  </si>
+  <si>
+    <t>Login - Investigate Authorization/Authetication using Google Framework</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,32 +383,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Plan/Tasks.xlsx
+++ b/Plan/Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Tasks</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Owner</t>
+  </si>
+  <si>
+    <t>End date</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -383,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -394,9 +400,11 @@
     <col min="2" max="2" width="67" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -406,8 +414,14 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -421,7 +435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -435,7 +449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -449,7 +463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -463,7 +477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>

--- a/Plan/Tasks.xlsx
+++ b/Plan/Tasks.xlsx
@@ -13,6 +13,53 @@
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Prioirity</t>
+  </si>
+  <si>
+    <t>End date</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Bootstrapping</t>
+  </si>
+  <si>
+    <t>Vaibhav</t>
+  </si>
+  <si>
+    <t>CI using Jenkins/Bluemix</t>
+  </si>
+  <si>
+    <t>Arjun</t>
+  </si>
+  <si>
+    <t>GITHUB setup</t>
+  </si>
+  <si>
+    <t>Vijay</t>
+  </si>
+  <si>
+    <t>Person Registration</t>
+  </si>
+  <si>
+    <t>Sajesh/Vijay</t>
+  </si>
+  <si>
+    <t>Login - Investigate Authorization/Authetication using Google Framework</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,32 +389,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C1" sqref="C1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="15.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="1" spans="1:6">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
